--- a/medicine/Psychotrope/Mont_des_Cats_(bière)/Mont_des_Cats_(bière).xlsx
+++ b/medicine/Psychotrope/Mont_des_Cats_(bière)/Mont_des_Cats_(bière).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mont_des_Cats_(bi%C3%A8re)</t>
+          <t>Mont_des_Cats_(bière)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Mont des Cats est une bière trappiste[1] brassée et embouteillée à l'abbaye Notre-Dame à Scourmont, près de Chimay en Belgique, par les pères trappistes pour le compte de l'abbaye du Mont-des-Cats située en France.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Mont des Cats est une bière trappiste brassée et embouteillée à l'abbaye Notre-Dame à Scourmont, près de Chimay en Belgique, par les pères trappistes pour le compte de l'abbaye du Mont-des-Cats située en France.
 La « Mont des Cats » est une bière ambrée de 7,6 % vol., commercialisée depuis le 16 juin 2011.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mont_des_Cats_(bi%C3%A8re)</t>
+          <t>Mont_des_Cats_(bière)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Bien qu'historiquement, le brassage d'une bière trappiste à l'abbaye du Mont-des-Cats remonte à 1835, la mise en place de la loi sur la séparation des Églises et de l'État en 1905, porte un coup fatal à la production, car une partie du personnel émigre en Belgique, notamment à l'abbaye Saint-Sixte de Westvleteren. En outre, les bâtiments de la brasserie sont détruits lors d'un bombardement en 1918[réf. nécessaire]. 
 Cette bière trappiste pourrait être la première en France à pouvoir arborer le logo Produit trappiste authentique (ATP). Toutefois cette autorisation ne peut lui être délivrée de façon définitive qu'à la condition d'être brassée à l'intérieur des murs de l'abbaye du Mont-des-Cats, ce qui n'est pas dans les projets de l'abbaye pour l'instant[réf. nécessaire].
